--- a/ipl/Mumbai Indians/Saurabh Tiwary.xlsx
+++ b/ipl/Mumbai Indians/Saurabh Tiwary.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,125 @@
         <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Saurabh Tiwary</v>
+      </c>
+      <c r="B3" t="str">
+        <v>45</v>
+      </c>
+      <c r="C3" t="str">
+        <v>37</v>
+      </c>
+      <c r="D3" t="str">
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>121.62</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Mumbai won by 6 wickets (with 6 balls remaining)</v>
+      </c>
+      <c r="I3" t="str">
+        <v>42nd Match (N), Abu Dhabi, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Saurabh Tiwary</v>
+      </c>
+      <c r="B4" t="str">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <v>18</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>83.33</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Capitals won by 4 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Saurabh Tiwary</v>
+      </c>
+      <c r="B5" t="str">
+        <v>50</v>
+      </c>
+      <c r="C5" t="str">
+        <v>40</v>
+      </c>
+      <c r="D5" t="str">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+      <c r="I5" t="str">
+        <v>30th Match (N), Dubai (DSC), September 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Saurabh Tiwary</v>
+      </c>
+      <c r="B6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>250.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H6" t="str">
+        <v>KKR won by 7 wickets (with 29 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>34th Match (N), Abu Dhabi, September 23, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>